--- a/medicine/Bioéthique/Acétate_d'ulipristal/Acétate_d'ulipristal.xlsx
+++ b/medicine/Bioéthique/Acétate_d'ulipristal/Acétate_d'ulipristal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_d%27ulipristal</t>
+          <t>Acétate_d'ulipristal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acétate d'ulipristal est une molécule appartenant à la classe thérapeutique des modulateurs sélectifs des récepteurs de la progestérone (SPRM). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_d%27ulipristal</t>
+          <t>Acétate_d'ulipristal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament a deux applications connues:
 Contraception d'urgence
 Cette molécule est une des deux principales molécules utilisées pour la contraception d'urgence, c'est-à-dire lorsqu'une femme en âge de procréer désire réduire le risque de grossesse non désirée après un rapport sexuel en l’absence de contraception ou de contraception suffisamment efficace.
-Depuis 2009, il est le nouveau standard pour la contraception d'urgence. Dans cette indication, l'acétate d'ulipristal est commercialisé au niveau européen en dose unique de 30mg, sous la désignation EllaOne  et Ella aux USA (pilule fabriquée par le laboratoire HRA Pharma)[2].Cette forme de contraception occasionnelle est appelée couramment « pilule du surlendemain » (par opposition à « pilule du lendemain », le RU-486). En vérité, l'ulipristal doit être prise le plus tôt possible après le rapport sexuel, bien qu’elle puisse être efficace pendant toute la durée de survie des spermatozoïdes, soit cinq jours[3],[4] au lieu de un jour pour le RU-486. Cette pilule contraceptive ne peut pas agir si la fécondation a déjà eu lieu, mais, contrairement au Norlevo (Levonorgestrel) et à la mifégyne (RU-486), elle peut encore agir quand le rapport a eu lieu en période pré-ovulatoire, c'est-à-dire au moment où le risque de fécondation est le plus élevé. Le risque de grossesse est d'ailleurs près de deux fois plus faible qu'avec la pilule du lendemain dans les études cliniques comparatives dans les premières 72 heures[3],[4]. Prise dans les premières 24 heures, elle permet de diviser le risque de grossesse par 6.
-En France, EllaOne est en délivrance libre depuis le 1er avril 2015. Cette pilule, délivrée en pharmacie, est gratuite et remboursée à 100 % par l'Assurance Maladie[5] pour toutes les femmes (mineures et majeures) depuis le 1er janvier 2023. 
+Depuis 2009, il est le nouveau standard pour la contraception d'urgence. Dans cette indication, l'acétate d'ulipristal est commercialisé au niveau européen en dose unique de 30mg, sous la désignation EllaOne  et Ella aux USA (pilule fabriquée par le laboratoire HRA Pharma).Cette forme de contraception occasionnelle est appelée couramment « pilule du surlendemain » (par opposition à « pilule du lendemain », le RU-486). En vérité, l'ulipristal doit être prise le plus tôt possible après le rapport sexuel, bien qu’elle puisse être efficace pendant toute la durée de survie des spermatozoïdes, soit cinq jours, au lieu de un jour pour le RU-486. Cette pilule contraceptive ne peut pas agir si la fécondation a déjà eu lieu, mais, contrairement au Norlevo (Levonorgestrel) et à la mifégyne (RU-486), elle peut encore agir quand le rapport a eu lieu en période pré-ovulatoire, c'est-à-dire au moment où le risque de fécondation est le plus élevé. Le risque de grossesse est d'ailleurs près de deux fois plus faible qu'avec la pilule du lendemain dans les études cliniques comparatives dans les premières 72 heures,. Prise dans les premières 24 heures, elle permet de diviser le risque de grossesse par 6.
+En France, EllaOne est en délivrance libre depuis le 1er avril 2015. Cette pilule, délivrée en pharmacie, est gratuite et remboursée à 100 % par l'Assurance Maladie pour toutes les femmes (mineures et majeures) depuis le 1er janvier 2023. 
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_d%27ulipristal</t>
+          <t>Acétate_d'ulipristal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Prise en charge des fibromes utérins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule est également utilisée pour la prise en charge médicamenteuse des fibromes utérins. Depuis sa première autorisation de mise sur le marché le 23 février 2012, l'acétate d'ulipristal est prescrit contre les fibromes utérins sous le nom d'Esmya (ou Fibristal au Canada). Il s'agit d'une pilule faiblement dosée fabriquée par le laboratoire Gedeon-Richter. Il s'agit d'une pilule contenant 5 mg d'acétate d'ulipristal à prendre chaque jour pendant 3 mois. Elle permet de réduire voire de bloquer des saignements (métrorragie) en quelques jours. Elle induit aussi la régression du volume des fibromes utérins[6]. Un traitement de plus de 3 mois diminue d'autant le volume des fibromes, les faisant parfois disparaitre. Le mécanisme d'action de cette molécule n'est pas encore bien élucidé [7]. Comme les autres SPRM, il module l'action de la progestérone [8], étant essentiellement antagoniste dans les tests fonctionnels, grâce à sa faculté de recruter des répresseurs transcriptionnels [9]. Toutefois, son action spécifique de l'acétate d'ulipristal sur les fibromes reste mal comprise. In vivo, l'acétate d'ulipristal réduit la prolifération des cellules tumorales, induit leur mort par apoptose,  réduit l'adhésion cellulaire via les intégrines[10], et diminue la fibrose présente dans ces tumeurs[11], probablement sous l'action des métalloprotéinases matricielles[12]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule est également utilisée pour la prise en charge médicamenteuse des fibromes utérins. Depuis sa première autorisation de mise sur le marché le 23 février 2012, l'acétate d'ulipristal est prescrit contre les fibromes utérins sous le nom d'Esmya (ou Fibristal au Canada). Il s'agit d'une pilule faiblement dosée fabriquée par le laboratoire Gedeon-Richter. Il s'agit d'une pilule contenant 5 mg d'acétate d'ulipristal à prendre chaque jour pendant 3 mois. Elle permet de réduire voire de bloquer des saignements (métrorragie) en quelques jours. Elle induit aussi la régression du volume des fibromes utérins. Un traitement de plus de 3 mois diminue d'autant le volume des fibromes, les faisant parfois disparaitre. Le mécanisme d'action de cette molécule n'est pas encore bien élucidé . Comme les autres SPRM, il module l'action de la progestérone , étant essentiellement antagoniste dans les tests fonctionnels, grâce à sa faculté de recruter des répresseurs transcriptionnels . Toutefois, son action spécifique de l'acétate d'ulipristal sur les fibromes reste mal comprise. In vivo, l'acétate d'ulipristal réduit la prolifération des cellules tumorales, induit leur mort par apoptose,  réduit l'adhésion cellulaire via les intégrines, et diminue la fibrose présente dans ces tumeurs, probablement sous l'action des métalloprotéinases matricielles. 
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_d%27ulipristal</t>
+          <t>Acétate_d'ulipristal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,11 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En dose unique (contraception)
-EllaOne peut amoindrir l'action d'une contraception hormonale bien suivie par ailleurs[4], une méthode barrière fiable est donc recommandée jusqu'aux règles suivantes.
-En prise répétée (fibromes)
-Lors d'un traitement à l'Esmya, les effets secondaires les plus fréquents[4] sont une aménorrhée, un épaississement typique et bénin de l'endomètre (PRM-associated endometrial changes; PAEC), des bouffées de chaleur, une augmentation du taux de cholestérol dans le sang, des douleurs mammaires, pelviennes et des dysménorrhées, la fatigue, des œdèmes, des douleurs musculosquelettiques, une hyperhidrose, de l'acné, des maux de tête, des vertiges, des troubles émotionnels, etc. 
-En 2018, une série de cas de complications hépatiques a conduit l'EMA à suspendre les études cliniques à long-terme en vue d'une étude de sécurité. Cependant, quelques cas décrits comme des « lésions hépatiques d'origine médicamenteuse » (DILI) conduiront à la suspension en 2020 de l'Esmya en Europe[13] et du retrait volontaire du Fibristal au Canada par le groupe pharmaceutique Allergan[14]. En 2021, la molécule est encore prescrite en Asie, sans qu'une augmentation du risque ne soit constatée[15], suggérant que les complications hépatiques ne concernent que des patientes avec des troubles hépatiques sous-jacents[16].
+          <t>En dose unique (contraception)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EllaOne peut amoindrir l'action d'une contraception hormonale bien suivie par ailleurs, une méthode barrière fiable est donc recommandée jusqu'aux règles suivantes.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_d%27ulipristal</t>
+          <t>Acétate_d'ulipristal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +629,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Effets secondaires indésirables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En prise répétée (fibromes)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'un traitement à l'Esmya, les effets secondaires les plus fréquents sont une aménorrhée, un épaississement typique et bénin de l'endomètre (PRM-associated endometrial changes; PAEC), des bouffées de chaleur, une augmentation du taux de cholestérol dans le sang, des douleurs mammaires, pelviennes et des dysménorrhées, la fatigue, des œdèmes, des douleurs musculosquelettiques, une hyperhidrose, de l'acné, des maux de tête, des vertiges, des troubles émotionnels, etc. 
+En 2018, une série de cas de complications hépatiques a conduit l'EMA à suspendre les études cliniques à long-terme en vue d'une étude de sécurité. Cependant, quelques cas décrits comme des « lésions hépatiques d'origine médicamenteuse » (DILI) conduiront à la suspension en 2020 de l'Esmya en Europe et du retrait volontaire du Fibristal au Canada par le groupe pharmaceutique Allergan. En 2021, la molécule est encore prescrite en Asie, sans qu'une augmentation du risque ne soit constatée, suggérant que les complications hépatiques ne concernent que des patientes avec des troubles hépatiques sous-jacents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acétate_d'ulipristal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9tate_d%27ulipristal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Asthme sévère 
 Insuffisance hépato-cellulaire
